--- a/Dynamics of Atmospheric Flight/Project_PartIV/Fly_off_2_glider/6917_new_performance_sheet.xlsx
+++ b/Dynamics of Atmospheric Flight/Project_PartIV/Fly_off_2_glider/6917_new_performance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chees\Desktop\USU\Machine_Learning\Spring_2024\Dynamics of Atmospheric Flight\Project_PartIV\Fly_off_2_glider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E5CAC4-CC59-425B-A014-68F2F99191F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0BF6E3-67AE-4CDA-A3B6-A7D724217613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A63E6AFB-F69A-4C02-A7B8-ACF62953D1BC}"/>
   </bookViews>
@@ -320,34 +320,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51.040664609866305</c:v>
+                  <c:v>35.594736248948983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.187661957219479</c:v>
+                  <c:v>20.286664145050906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.422769041494867</c:v>
+                  <c:v>15.601279294361058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.648132223973573</c:v>
+                  <c:v>13.225345306394937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.85844701564103</c:v>
+                  <c:v>11.570177768124166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.6248771165889</c:v>
+                  <c:v>10.419303211467396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6890264906568238</c:v>
+                  <c:v>9.5335723974611248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.94500716326176</c:v>
+                  <c:v>8.8221783233791022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3322846477483026</c:v>
+                  <c:v>8.2315953490606866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8133481008690966</c:v>
+                  <c:v>7.7284875633958414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,34 +359,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.4499999999999998E-2</c:v>
+                  <c:v>9.1499999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23649999999999999</c:v>
+                  <c:v>0.28289999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.433</c:v>
+                  <c:v>0.4798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62809999999999999</c:v>
+                  <c:v>0.66890000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83250000000000002</c:v>
+                  <c:v>0.87450000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0364</c:v>
+                  <c:v>1.0777000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.244</c:v>
+                  <c:v>1.2848999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4551000000000001</c:v>
+                  <c:v>1.4959</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6698</c:v>
+                  <c:v>1.7109000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8885000000000001</c:v>
+                  <c:v>1.9301999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,34 +907,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51.040664609866305</c:v>
+                  <c:v>35.594736248948983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.187661957219479</c:v>
+                  <c:v>20.286664145050906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.422769041494867</c:v>
+                  <c:v>15.601279294361058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.648132223973573</c:v>
+                  <c:v>13.225345306394937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.85844701564103</c:v>
+                  <c:v>11.570177768124166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.6248771165889</c:v>
+                  <c:v>10.419303211467396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6890264906568238</c:v>
+                  <c:v>9.5335723974611248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.94500716326176</c:v>
+                  <c:v>8.8221783233791022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3322846477483026</c:v>
+                  <c:v>8.2315953490606866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8133481008690966</c:v>
+                  <c:v>7.7284875633958414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -946,34 +946,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-1.5319</c:v>
+                  <c:v>-0.31040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.8734</c:v>
+                  <c:v>-0.72599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.3264999999999998</c:v>
+                  <c:v>-1.0421</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.5028000000000001</c:v>
+                  <c:v>-1.3111999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.8835999999999999</c:v>
+                  <c:v>-1.7345999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.3277000000000001</c:v>
+                  <c:v>-2.1291000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.7033</c:v>
+                  <c:v>-2.5177</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.0800999999999998</c:v>
+                  <c:v>-2.9102999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.4640000000000004</c:v>
+                  <c:v>-3.3121999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.8461999999999996</c:v>
+                  <c:v>-3.7157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1499,34 +1499,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51.040664609866305</c:v>
+                  <c:v>35.594736248948983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.187661957219479</c:v>
+                  <c:v>20.286664145050906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.422769041494867</c:v>
+                  <c:v>15.601279294361058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.648132223973573</c:v>
+                  <c:v>13.225345306394937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.85844701564103</c:v>
+                  <c:v>11.570177768124166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.6248771165889</c:v>
+                  <c:v>10.419303211467396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6890264906568238</c:v>
+                  <c:v>9.5335723974611248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.94500716326176</c:v>
+                  <c:v>8.8221783233791022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3322846477483026</c:v>
+                  <c:v>8.2315953490606866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8133481008690966</c:v>
+                  <c:v>7.7284875633958414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1538,34 +1538,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-0.29070000000000001</c:v>
+                  <c:v>-0.30449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.28720000000000001</c:v>
+                  <c:v>-0.30180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.2833</c:v>
+                  <c:v>-0.29809999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.27660000000000001</c:v>
+                  <c:v>-0.2913</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.27079999999999999</c:v>
+                  <c:v>-0.28560000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.2646</c:v>
+                  <c:v>-0.27979999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.25530000000000003</c:v>
+                  <c:v>-0.27060000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.252</c:v>
+                  <c:v>-0.2676</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.24859999999999999</c:v>
+                  <c:v>-0.2626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.21510000000000001</c:v>
+                  <c:v>-0.2298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2087,34 +2087,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51.040664609866305</c:v>
+                  <c:v>35.594736248948983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.187661957219479</c:v>
+                  <c:v>20.286664145050906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.422769041494867</c:v>
+                  <c:v>15.601279294361058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.648132223973573</c:v>
+                  <c:v>13.225345306394937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.85844701564103</c:v>
+                  <c:v>11.570177768124166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.6248771165889</c:v>
+                  <c:v>10.419303211467396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6890264906568238</c:v>
+                  <c:v>9.5335723974611248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.94500716326176</c:v>
+                  <c:v>8.8221783233791022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3322846477483026</c:v>
+                  <c:v>8.2315953490606866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8133481008690966</c:v>
+                  <c:v>7.7284875633958414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,34 +2126,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.6100000000000005E-2</c:v>
+                  <c:v>9.4399999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0600000000000005E-2</c:v>
+                  <c:v>7.8200000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4399999999999999E-2</c:v>
+                  <c:v>6.13E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0999999999999997E-2</c:v>
+                  <c:v>4.7800000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2000000000000003E-2</c:v>
+                  <c:v>3.8699999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.7999999999999996E-3</c:v>
+                  <c:v>-1.29E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.96E-2</c:v>
+                  <c:v>-6.4399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2600000000000001E-2</c:v>
+                  <c:v>5.5800000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10879999999999999</c:v>
+                  <c:v>8.9800000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.14019999999999999</c:v>
+                  <c:v>-0.14810000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2723,31 +2723,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.26035736020488831</c:v>
+                  <c:v>0.41829680388760693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21495710697929565</c:v>
+                  <c:v>0.21385020683027309</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21974108313790619</c:v>
+                  <c:v>0.22290979566490349</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21357748823708164</c:v>
+                  <c:v>0.22311181783628831</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21736392800342832</c:v>
+                  <c:v>0.21322886148010456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22765603381945032</c:v>
+                  <c:v>0.22961656965700566</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22426268673000238</c:v>
+                  <c:v>0.22539167678995445</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22258160583792203</c:v>
+                  <c:v>0.22447802106672066</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22406636898917587</c:v>
+                  <c:v>0.22563193352047631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2759,31 +2759,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.51661150439837633</c:v>
+                  <c:v>2.2424153088873329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.744068675246952E-2</c:v>
+                  <c:v>7.9180527207667276E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16567053759287517</c:v>
+                  <c:v>0.27786316500516256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40953231986243283</c:v>
+                  <c:v>0.27087625564806855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36154506305423462</c:v>
+                  <c:v>0.39671988575607187</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28692118278197043</c:v>
+                  <c:v>0.27800116334077002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30440259954492715</c:v>
+                  <c:v>0.29972963228053812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31110498049062163</c:v>
+                  <c:v>0.30337890187236077</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30628678432430839</c:v>
+                  <c:v>0.29961811587787851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3307,34 +3307,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51.040664609866305</c:v>
+                  <c:v>35.594736248948983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.187661957219479</c:v>
+                  <c:v>20.286664145050906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.422769041494867</c:v>
+                  <c:v>15.601279294361058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.648132223973573</c:v>
+                  <c:v>13.225345306394937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.85844701564103</c:v>
+                  <c:v>11.570177768124166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.6248771165889</c:v>
+                  <c:v>10.419303211467396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6890264906568238</c:v>
+                  <c:v>9.5335723974611248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.94500716326176</c:v>
+                  <c:v>8.8221783233791022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3322846477483026</c:v>
+                  <c:v>8.2315953490606866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8133481008690966</c:v>
+                  <c:v>7.7284875633958414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3346,37 +3346,37 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.7430000000000001E-2</c:v>
+                  <c:v>1.303E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4630000000000001E-2</c:v>
+                  <c:v>1.1730000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3829999999999999E-2</c:v>
+                  <c:v>1.2330000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5130000000000001E-2</c:v>
+                  <c:v>1.5030000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8429999999999998E-2</c:v>
+                  <c:v>1.9629999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4129999999999999E-2</c:v>
+                  <c:v>2.673E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2129999999999999E-2</c:v>
+                  <c:v>3.6229999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2630000000000001E-2</c:v>
+                  <c:v>4.8129999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5730000000000002E-2</c:v>
+                  <c:v>6.2730000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.1529999999999996E-2</c:v>
+                  <c:v>8.0129999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0329999999999994E-2</c:v>
+                  <c:v>0.10063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3903,76 +3903,73 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51.040664609866305</c:v>
+                  <c:v>35.594736248948983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.187661957219479</c:v>
+                  <c:v>20.286664145050906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.422769041494867</c:v>
+                  <c:v>15.601279294361058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.648132223973573</c:v>
+                  <c:v>13.225345306394937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.85844701564103</c:v>
+                  <c:v>11.570177768124166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.6248771165889</c:v>
+                  <c:v>10.419303211467396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6890264906568238</c:v>
+                  <c:v>9.5335723974611248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.94500716326176</c:v>
+                  <c:v>8.8221783233791022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3322846477483026</c:v>
+                  <c:v>8.2315953490606866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8133481008690966</c:v>
+                  <c:v>7.7284875633958414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$25:$F$35</c:f>
+              <c:f>Sheet1!$F$26:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.36299999999999999</c:v>
+                  <c:v>0.14280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31340000000000001</c:v>
+                  <c:v>0.12609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2571</c:v>
+                  <c:v>8.7499999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1817</c:v>
+                  <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1086</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-6.6400000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.1084</c:v>
+                  <c:v>-0.14749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.2311</c:v>
+                  <c:v>-0.24229999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.36699999999999999</c:v>
+                  <c:v>-0.3508</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.5161</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.67849999999999999</c:v>
+                  <c:v>-0.47339999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4499,34 +4496,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51.040664609866305</c:v>
+                  <c:v>35.594736248948983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.187661957219479</c:v>
+                  <c:v>20.286664145050906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.422769041494867</c:v>
+                  <c:v>15.601279294361058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.648132223973573</c:v>
+                  <c:v>13.225345306394937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.85844701564103</c:v>
+                  <c:v>11.570177768124166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.6248771165889</c:v>
+                  <c:v>10.419303211467396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6890264906568238</c:v>
+                  <c:v>9.5335723974611248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.94500716326176</c:v>
+                  <c:v>8.8221783233791022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3322846477483026</c:v>
+                  <c:v>8.2315953490606866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8133481008690966</c:v>
+                  <c:v>7.7284875633958414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4538,34 +4535,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.0416951469583045</c:v>
+                  <c:v>7.8005115089514057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.100506146059292</c:v>
+                  <c:v>22.944038929440385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.618638466622603</c:v>
+                  <c:v>31.922821024617427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.080303852414545</c:v>
+                  <c:v>34.075394803871632</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.500621632822217</c:v>
+                  <c:v>32.716049382716051</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.256458138811084</c:v>
+                  <c:v>29.746066795473368</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.181327703495189</c:v>
+                  <c:v>26.696447122376895</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.109815180333751</c:v>
+                  <c:v>23.846644348796428</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.34405144694534</c:v>
+                  <c:v>21.35155372519656</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.906675523082036</c:v>
+                  <c:v>19.18115870018881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5086,34 +5083,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51.040664609866305</c:v>
+                  <c:v>35.594736248948983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.187661957219479</c:v>
+                  <c:v>20.286664145050906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.422769041494867</c:v>
+                  <c:v>15.601279294361058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.648132223973573</c:v>
+                  <c:v>13.225345306394937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.85844701564103</c:v>
+                  <c:v>11.570177768124166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.6248771165889</c:v>
+                  <c:v>10.419303211467396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6890264906568238</c:v>
+                  <c:v>9.5335723974611248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.94500716326176</c:v>
+                  <c:v>8.8221783233791022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3322846477483026</c:v>
+                  <c:v>8.2315953490606866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8133481008690966</c:v>
+                  <c:v>7.7284875633958414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5673,34 +5670,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51.040664609866305</c:v>
+                  <c:v>35.594736248948983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.187661957219479</c:v>
+                  <c:v>20.286664145050906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.422769041494867</c:v>
+                  <c:v>15.601279294361058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.648132223973573</c:v>
+                  <c:v>13.225345306394937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.85844701564103</c:v>
+                  <c:v>11.570177768124166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.6248771165889</c:v>
+                  <c:v>10.419303211467396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6890264906568238</c:v>
+                  <c:v>9.5335723974611248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.94500716326176</c:v>
+                  <c:v>8.8221783233791022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3322846477483026</c:v>
+                  <c:v>8.2315953490606866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8133481008690966</c:v>
+                  <c:v>7.7284875633958414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5712,34 +5709,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.072617724111538</c:v>
+                  <c:v>3.5548773625496128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0151403129664431</c:v>
+                  <c:v>0.69177405157417438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45034708604406443</c:v>
+                  <c:v>0.38353843220610562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31485766633807005</c:v>
+                  <c:v>0.30514807372669572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27040209206925142</c:v>
+                  <c:v>0.27821998749616816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25897136517536334</c:v>
+                  <c:v>0.27539346911277479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26057037358152085</c:v>
+                  <c:v>0.28025420754136354</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26804048444144662</c:v>
+                  <c:v>0.2894490019873372</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27806721796544875</c:v>
+                  <c:v>0.30034226743078452</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28954282251755786</c:v>
+                  <c:v>0.31216217853735589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6268,34 +6265,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51.040664609866305</c:v>
+                  <c:v>35.594736248948983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.187661957219479</c:v>
+                  <c:v>20.286664145050906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.422769041494867</c:v>
+                  <c:v>15.601279294361058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.648132223973573</c:v>
+                  <c:v>13.225345306394937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.85844701564103</c:v>
+                  <c:v>11.570177768124166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.6248771165889</c:v>
+                  <c:v>10.419303211467396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6890264906568238</c:v>
+                  <c:v>9.5335723974611248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.94500716326176</c:v>
+                  <c:v>8.8221783233791022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3322846477483026</c:v>
+                  <c:v>8.2315953490606866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8133481008690966</c:v>
+                  <c:v>7.7284875633958414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6307,34 +6304,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.27889999999999998</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33689999999999998</c:v>
+                  <c:v>0.13100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4108</c:v>
+                  <c:v>0.1857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4395</c:v>
+                  <c:v>0.23130000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49840000000000001</c:v>
+                  <c:v>0.30009999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56420000000000003</c:v>
+                  <c:v>0.3619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61760000000000004</c:v>
+                  <c:v>0.4204</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66900000000000004</c:v>
+                  <c:v>0.47699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.71909999999999996</c:v>
+                  <c:v>0.53249999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76659999999999995</c:v>
+                  <c:v>0.5857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6860,34 +6857,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51.040664609866305</c:v>
+                  <c:v>35.594736248948983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.187661957219479</c:v>
+                  <c:v>20.286664145050906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.422769041494867</c:v>
+                  <c:v>15.601279294361058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.648132223973573</c:v>
+                  <c:v>13.225345306394937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.85844701564103</c:v>
+                  <c:v>11.570177768124166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.6248771165889</c:v>
+                  <c:v>10.419303211467396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6890264906568238</c:v>
+                  <c:v>9.5335723974611248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.94500716326176</c:v>
+                  <c:v>8.8221783233791022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3322846477483026</c:v>
+                  <c:v>8.2315953490606866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8133481008690966</c:v>
+                  <c:v>7.7284875633958414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6899,34 +6896,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.0416951469583045</c:v>
+                  <c:v>7.8005115089514057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.100506146059292</c:v>
+                  <c:v>22.944038929440385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.618638466622603</c:v>
+                  <c:v>31.922821024617427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.080303852414545</c:v>
+                  <c:v>34.075394803871632</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.500621632822217</c:v>
+                  <c:v>32.716049382716051</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.256458138811084</c:v>
+                  <c:v>29.746066795473368</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.181327703495189</c:v>
+                  <c:v>26.696447122376895</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.109815180333751</c:v>
+                  <c:v>23.846644348796428</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.34405144694534</c:v>
+                  <c:v>21.35155372519656</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.906675523082036</c:v>
+                  <c:v>19.18115870018881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7460,34 +7457,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51.040664609866305</c:v>
+                  <c:v>35.594736248948983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.187661957219479</c:v>
+                  <c:v>20.286664145050906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.422769041494867</c:v>
+                  <c:v>15.601279294361058</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.648132223973573</c:v>
+                  <c:v>13.225345306394937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.85844701564103</c:v>
+                  <c:v>11.570177768124166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.6248771165889</c:v>
+                  <c:v>10.419303211467396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6890264906568238</c:v>
+                  <c:v>9.5335723974611248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.94500716326176</c:v>
+                  <c:v>8.8221783233791022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3322846477483026</c:v>
+                  <c:v>8.2315953490606866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8133481008690966</c:v>
+                  <c:v>7.7284875633958414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7499,34 +7496,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16.617030283604347</c:v>
+                  <c:v>4.5187204303414426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.290377924197843</c:v>
+                  <c:v>0.87933653435130854</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57245085298597231</c:v>
+                  <c:v>0.48752819652485779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40022583747053525</c:v>
+                  <c:v>0.38788365797215679</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34371690869359534</c:v>
+                  <c:v>0.35365449027096502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32918693933565951</c:v>
+                  <c:v>0.35006161066832947</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3312194910150259</c:v>
+                  <c:v>0.35624025364352813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34071499229877544</c:v>
+                  <c:v>0.36792805642219045</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35346029994336947</c:v>
+                  <c:v>0.38177484102044557</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.368047314754745</c:v>
+                  <c:v>0.3967995151104054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16007,8 +16004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4602115-156F-4427-9CDC-7D2EBE7CF748}">
   <dimension ref="A1:AO96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U37" workbookViewId="0">
-      <selection activeCell="AO45" sqref="AO45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M94" sqref="M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16149,21 +16146,21 @@
         <v>-10</v>
       </c>
       <c r="B3" s="1">
-        <v>-0.1467</v>
+        <v>-0.97699999999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>1.46E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="D3" s="1">
         <f>C3+$C$16</f>
-        <v>1.7430000000000001E-2</v>
+        <v>1.303E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>0.36299999999999999</v>
+        <v>0.14879999999999999</v>
       </c>
       <c r="F3" s="1">
         <f>B3/D3</f>
-        <v>-8.4165232358003443</v>
+        <v>-74.980813507290861</v>
       </c>
       <c r="G3" s="1" t="e">
         <f>SQRT($G$19*COS(A3*PI()/180)/(0.5*$G$16*B3*$G$17))</f>
@@ -16178,24 +16175,24 @@
         <v>#NUM!</v>
       </c>
       <c r="J3" s="1">
-        <v>0.23749999999999999</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="K3" s="1">
         <f>F3</f>
-        <v>-8.4165232358003443</v>
+        <v>-74.980813507290861</v>
       </c>
       <c r="L3" s="1" t="e">
         <f>I3/$G$19</f>
         <v>#NUM!</v>
       </c>
       <c r="M3" s="1">
-        <v>-1.296</v>
+        <v>-4.58E-2</v>
       </c>
       <c r="N3" s="1">
-        <v>-0.29260000000000003</v>
+        <v>-0.30630000000000002</v>
       </c>
       <c r="O3" s="1">
-        <v>0.112</v>
+        <v>0.1106</v>
       </c>
       <c r="Q3" s="1">
         <v>-10</v>
@@ -16255,53 +16252,53 @@
         <v>-8</v>
       </c>
       <c r="B4" s="1">
-        <v>4.4499999999999998E-2</v>
+        <v>9.1499999999999998E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>1.18E-2</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D13" si="4">C4+$C$16</f>
-        <v>1.4630000000000001E-2</v>
+        <v>1.1730000000000001E-2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.31340000000000001</v>
+        <v>0.14280000000000001</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F13" si="5">B4/D4</f>
-        <v>3.0416951469583045</v>
+        <v>7.8005115089514057</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G13" si="6">SQRT($G$19*COS(A4*PI()/180)/(0.5*$G$16*B4*$G$17))</f>
-        <v>51.040664609866305</v>
+        <v>35.594736248948983</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ref="H4:H13" si="7">D4*0.5*$G$16*$G$17*G4*G4</f>
-        <v>0.2561216203596331</v>
+        <v>9.9870872414585699E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I13" si="8">H4*G4</f>
-        <v>13.072617724111538</v>
+        <v>3.5548773625496128</v>
       </c>
       <c r="J4" s="1">
-        <v>0.27889999999999998</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:K13" si="9">F4</f>
-        <v>3.0416951469583045</v>
+        <v>7.8005115089514057</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L13" si="10">I4/$G$19</f>
-        <v>16.617030283604347</v>
+        <v>4.5187204303414426</v>
       </c>
       <c r="M4" s="1">
-        <v>-1.5319</v>
+        <v>-0.31040000000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-0.29070000000000001</v>
+        <v>-0.30449999999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>9.6100000000000005E-2</v>
+        <v>9.4399999999999998E-2</v>
       </c>
       <c r="Q4" s="1">
         <v>-8</v>
@@ -16361,53 +16358,53 @@
         <v>-6</v>
       </c>
       <c r="B5" s="1">
-        <v>0.23649999999999999</v>
+        <v>0.28289999999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="4"/>
-        <v>1.3829999999999999E-2</v>
+        <v>1.2330000000000001E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>0.2571</v>
+        <v>0.12609999999999999</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="5"/>
-        <v>17.100506146059292</v>
+        <v>22.944038929440385</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="6"/>
-        <v>22.187661957219479</v>
+        <v>20.286664145050906</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="7"/>
-        <v>4.5752468868678349E-2</v>
+        <v>3.4099941056249909E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="8"/>
-        <v>1.0151403129664431</v>
+        <v>0.69177405157417438</v>
       </c>
       <c r="J5" s="1">
-        <v>0.33689999999999998</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="9"/>
-        <v>17.100506146059292</v>
+        <v>22.944038929440385</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="10"/>
-        <v>1.290377924197843</v>
+        <v>0.87933653435130854</v>
       </c>
       <c r="M5" s="1">
-        <v>-1.8734</v>
+        <v>-0.72599999999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>-0.28720000000000001</v>
+        <v>-0.30180000000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>8.0600000000000005E-2</v>
+        <v>7.8200000000000006E-2</v>
       </c>
       <c r="Q5" s="1">
         <v>-6</v>
@@ -16467,53 +16464,53 @@
         <v>-4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.433</v>
+        <v>0.4798</v>
       </c>
       <c r="C6" s="1">
-        <v>1.23E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="4"/>
-        <v>1.5130000000000001E-2</v>
+        <v>1.5030000000000002E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>0.1817</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="5"/>
-        <v>28.618638466622603</v>
+        <v>31.922821024617427</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="6"/>
-        <v>16.422769041494867</v>
+        <v>15.601279294361058</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="7"/>
-        <v>2.7422116508256759E-2</v>
+        <v>2.4583780917551559E-2</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="8"/>
-        <v>0.45034708604406443</v>
+        <v>0.38353843220610562</v>
       </c>
       <c r="J6" s="1">
-        <v>0.4108</v>
+        <v>0.1857</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="9"/>
-        <v>28.618638466622603</v>
+        <v>31.922821024617427</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="10"/>
-        <v>0.57245085298597231</v>
+        <v>0.48752819652485779</v>
       </c>
       <c r="M6" s="1">
-        <v>-2.3264999999999998</v>
+        <v>-1.0421</v>
       </c>
       <c r="N6" s="1">
-        <v>-0.2833</v>
+        <v>-0.29809999999999998</v>
       </c>
       <c r="O6" s="1">
-        <v>6.4399999999999999E-2</v>
+        <v>6.13E-2</v>
       </c>
       <c r="Q6" s="1">
         <v>-4</v>
@@ -16573,53 +16570,53 @@
         <v>-2</v>
       </c>
       <c r="B7" s="1">
-        <v>0.62809999999999999</v>
+        <v>0.66890000000000005</v>
       </c>
       <c r="C7" s="1">
-        <v>1.5599999999999999E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="4"/>
-        <v>1.8429999999999998E-2</v>
+        <v>1.9629999999999998E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.1086</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="5"/>
-        <v>34.080303852414545</v>
+        <v>34.075394803871632</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="6"/>
-        <v>13.648132223973573</v>
+        <v>13.225345306394937</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="7"/>
-        <v>2.3069652401594413E-2</v>
+        <v>2.3072975915354399E-2</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="8"/>
-        <v>0.31485766633807005</v>
+        <v>0.30514807372669572</v>
       </c>
       <c r="J7" s="1">
-        <v>0.4395</v>
+        <v>0.23130000000000001</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="9"/>
-        <v>34.080303852414545</v>
+        <v>34.075394803871632</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="10"/>
-        <v>0.40022583747053525</v>
+        <v>0.38788365797215679</v>
       </c>
       <c r="M7" s="1">
-        <v>-2.5028000000000001</v>
+        <v>-1.3111999999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-0.27660000000000001</v>
+        <v>-0.2913</v>
       </c>
       <c r="O7" s="1">
-        <v>5.0999999999999997E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="Q7" s="1">
         <v>-2</v>
@@ -16679,53 +16676,53 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>0.83250000000000002</v>
+        <v>0.87450000000000006</v>
       </c>
       <c r="C8" s="1">
-        <v>2.1299999999999999E-2</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="4"/>
-        <v>2.4129999999999999E-2</v>
+        <v>2.673E-2</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="5"/>
-        <v>34.500621632822217</v>
+        <v>32.716049382716051</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="6"/>
-        <v>11.85844701564103</v>
+        <v>11.570177768124166</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="7"/>
-        <v>2.2802487687687691E-2</v>
+        <v>2.4046301886792448E-2</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="8"/>
-        <v>0.27040209206925142</v>
+        <v>0.27821998749616816</v>
       </c>
       <c r="J8" s="1">
-        <v>0.49840000000000001</v>
+        <v>0.30009999999999998</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="9"/>
-        <v>34.500621632822217</v>
+        <v>32.716049382716051</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="10"/>
-        <v>0.34371690869359534</v>
+        <v>0.35365449027096502</v>
       </c>
       <c r="M8" s="1">
-        <v>-2.8835999999999999</v>
+        <v>-1.7345999999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-0.27079999999999999</v>
+        <v>-0.28560000000000002</v>
       </c>
       <c r="O8" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -16785,53 +16782,53 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0364</v>
+        <v>1.0777000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>2.93E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="4"/>
-        <v>3.2129999999999999E-2</v>
+        <v>3.6229999999999998E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.1084</v>
+        <v>-6.6400000000000001E-2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="5"/>
-        <v>32.256458138811084</v>
+        <v>29.746066795473368</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="6"/>
-        <v>10.6248771165889</v>
+        <v>10.419303211467396</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="7"/>
-        <v>2.4374057444017359E-2</v>
+        <v>2.6431083108290686E-2</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="8"/>
-        <v>0.25897136517536334</v>
+        <v>0.27539346911277479</v>
       </c>
       <c r="J9" s="1">
-        <v>0.56420000000000003</v>
+        <v>0.3619</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="9"/>
-        <v>32.256458138811084</v>
+        <v>29.746066795473368</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="10"/>
-        <v>0.32918693933565951</v>
+        <v>0.35006161066832947</v>
       </c>
       <c r="M9" s="1">
-        <v>-3.3277000000000001</v>
+        <v>-2.1291000000000002</v>
       </c>
       <c r="N9" s="1">
-        <v>-0.2646</v>
+        <v>-0.27979999999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>-5.7999999999999996E-3</v>
+        <v>-1.29E-2</v>
       </c>
       <c r="Q9" s="1">
         <v>2</v>
@@ -16891,53 +16888,53 @@
         <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>1.244</v>
+        <v>1.2848999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>3.9800000000000002E-2</v>
+        <v>4.53E-2</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="4"/>
-        <v>4.2630000000000001E-2</v>
+        <v>4.8129999999999999E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.2311</v>
+        <v>-0.14749999999999999</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="5"/>
-        <v>29.181327703495189</v>
+        <v>26.696447122376895</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="6"/>
-        <v>9.6890264906568238</v>
+        <v>9.5335723974611248</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="7"/>
-        <v>2.6893349278463645E-2</v>
+        <v>2.9396557329967696E-2</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="8"/>
-        <v>0.26057037358152085</v>
+        <v>0.28025420754136354</v>
       </c>
       <c r="J10" s="1">
-        <v>0.61760000000000004</v>
+        <v>0.4204</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="9"/>
-        <v>29.181327703495189</v>
+        <v>26.696447122376895</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="10"/>
-        <v>0.3312194910150259</v>
+        <v>0.35624025364352813</v>
       </c>
       <c r="M10" s="1">
-        <v>-3.7033</v>
+        <v>-2.5177</v>
       </c>
       <c r="N10" s="1">
-        <v>-0.25530000000000003</v>
+        <v>-0.27060000000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>-5.96E-2</v>
+        <v>-6.4399999999999999E-2</v>
       </c>
       <c r="Q10" s="1">
         <v>4</v>
@@ -16997,53 +16994,53 @@
         <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>1.4551000000000001</v>
+        <v>1.4959</v>
       </c>
       <c r="C11" s="1">
-        <v>5.2900000000000003E-2</v>
+        <v>5.9900000000000002E-2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="4"/>
-        <v>5.5730000000000002E-2</v>
+        <v>6.2730000000000008E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.36699999999999999</v>
+        <v>-0.24229999999999999</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="5"/>
-        <v>26.109815180333751</v>
+        <v>23.846644348796428</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="6"/>
-        <v>8.94500716326176</v>
+        <v>8.8221783233791022</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="7"/>
-        <v>2.9965373928633812E-2</v>
+        <v>3.2809244086609145E-2</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="8"/>
-        <v>0.26804048444144662</v>
+        <v>0.2894490019873372</v>
       </c>
       <c r="J11" s="1">
-        <v>0.66900000000000004</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="9"/>
-        <v>26.109815180333751</v>
+        <v>23.846644348796428</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="10"/>
-        <v>0.34071499229877544</v>
+        <v>0.36792805642219045</v>
       </c>
       <c r="M11" s="1">
-        <v>-4.0800999999999998</v>
+        <v>-2.9102999999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-0.252</v>
+        <v>-0.2676</v>
       </c>
       <c r="O11" s="1">
-        <v>5.2600000000000001E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="Q11" s="1">
         <v>6</v>
@@ -17103,53 +17100,53 @@
         <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>1.6698</v>
+        <v>1.7109000000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>6.8699999999999997E-2</v>
+        <v>7.7299999999999994E-2</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="4"/>
-        <v>7.1529999999999996E-2</v>
+        <v>8.0129999999999993E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.5161</v>
+        <v>-0.3508</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="5"/>
-        <v>23.34405144694534</v>
+        <v>21.35155372519656</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="6"/>
-        <v>8.3322846477483026</v>
+        <v>8.2315953490606866</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="7"/>
-        <v>3.3372265797543654E-2</v>
+        <v>3.6486519890103292E-2</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="8"/>
-        <v>0.27806721796544875</v>
+        <v>0.30034226743078452</v>
       </c>
       <c r="J12" s="1">
-        <v>0.71909999999999996</v>
+        <v>0.53249999999999997</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="9"/>
-        <v>23.34405144694534</v>
+        <v>21.35155372519656</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="10"/>
-        <v>0.35346029994336947</v>
+        <v>0.38177484102044557</v>
       </c>
       <c r="M12" s="1">
-        <v>-4.4640000000000004</v>
+        <v>-3.3121999999999998</v>
       </c>
       <c r="N12" s="1">
-        <v>-0.24859999999999999</v>
+        <v>-0.2626</v>
       </c>
       <c r="O12" s="1">
-        <v>0.10879999999999999</v>
+        <v>8.9800000000000005E-2</v>
       </c>
       <c r="Q12" s="1">
         <v>8</v>
@@ -17209,53 +17206,53 @@
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>1.8885000000000001</v>
+        <v>1.9301999999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>8.7499999999999994E-2</v>
+        <v>9.7799999999999998E-2</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="4"/>
-        <v>9.0329999999999994E-2</v>
+        <v>0.10063</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.67849999999999999</v>
+        <v>-0.47339999999999999</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="5"/>
-        <v>20.906675523082036</v>
+        <v>19.18115870018881</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="6"/>
-        <v>7.8133481008690966</v>
+        <v>7.7284875633958414</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="7"/>
-        <v>3.7057458439020703E-2</v>
+        <v>4.0391108347749491E-2</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="8"/>
-        <v>0.28954282251755786</v>
+        <v>0.31216217853735589</v>
       </c>
       <c r="J13" s="1">
-        <v>0.76659999999999995</v>
+        <v>0.5857</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="9"/>
-        <v>20.906675523082036</v>
+        <v>19.18115870018881</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="10"/>
-        <v>0.368047314754745</v>
+        <v>0.3967995151104054</v>
       </c>
       <c r="M13" s="1">
-        <v>-4.8461999999999996</v>
+        <v>-3.7157</v>
       </c>
       <c r="N13" s="1">
-        <v>-0.21510000000000001</v>
+        <v>-0.2298</v>
       </c>
       <c r="O13" s="1">
-        <v>-0.14019999999999999</v>
+        <v>-0.14810000000000001</v>
       </c>
       <c r="Q13" s="1">
         <v>10</v>
@@ -17581,17 +17578,17 @@
         <v>#NUM!</v>
       </c>
       <c r="D25" s="1">
-        <v>-0.1467</v>
+        <v>-0.97699999999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>1.7430000000000001E-2</v>
+        <v>1.303E-2</v>
       </c>
       <c r="F25" s="1">
-        <v>0.36299999999999999</v>
+        <v>0.14879999999999999</v>
       </c>
       <c r="G25" s="1">
         <f>D25/E25</f>
-        <v>-8.4165232358003443</v>
+        <v>-74.980813507290861</v>
       </c>
       <c r="H25" s="1" t="e">
         <v>#NUM!</v>
@@ -17600,22 +17597,22 @@
         <v>#NUM!</v>
       </c>
       <c r="J25" s="1">
-        <v>0.23749999999999999</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="K25" s="1">
-        <v>-8.4165232358003443</v>
+        <v>-74.980813507290861</v>
       </c>
       <c r="L25" s="1" t="e">
         <v>#NUM!</v>
       </c>
       <c r="M25" s="1">
-        <v>-1.296</v>
+        <v>-4.58E-2</v>
       </c>
       <c r="N25" s="1">
-        <v>-0.29260000000000003</v>
+        <v>-0.30630000000000002</v>
       </c>
       <c r="O25" s="1">
-        <v>0.112</v>
+        <v>0.1106</v>
       </c>
       <c r="Q25" s="1">
         <v>-10</v>
@@ -17667,44 +17664,44 @@
         <v>-8</v>
       </c>
       <c r="B26" s="1">
-        <v>51.040664609866305</v>
+        <v>35.594736248948983</v>
       </c>
       <c r="D26" s="1">
-        <v>4.4499999999999998E-2</v>
+        <v>9.1499999999999998E-2</v>
       </c>
       <c r="E26" s="1">
-        <v>1.4630000000000001E-2</v>
+        <v>1.1730000000000001E-2</v>
       </c>
       <c r="F26" s="1">
-        <v>0.31340000000000001</v>
+        <v>0.14280000000000001</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" ref="G26:G35" si="18">D26/E26</f>
-        <v>3.0416951469583045</v>
+        <v>7.8005115089514057</v>
       </c>
       <c r="H26" s="1">
         <v>0.2561216203596331</v>
       </c>
       <c r="I26" s="1">
-        <v>13.072617724111538</v>
+        <v>3.5548773625496128</v>
       </c>
       <c r="J26" s="1">
-        <v>0.27889999999999998</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="K26" s="1">
-        <v>3.0416951469583045</v>
+        <v>7.8005115089514057</v>
       </c>
       <c r="L26" s="1">
-        <v>16.617030283604347</v>
+        <v>4.5187204303414426</v>
       </c>
       <c r="M26" s="1">
-        <v>-1.5319</v>
+        <v>-0.31040000000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-0.29070000000000001</v>
+        <v>-0.30449999999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>9.6100000000000005E-2</v>
+        <v>9.4399999999999998E-2</v>
       </c>
       <c r="Q26" s="1">
         <v>-8</v>
@@ -17756,44 +17753,44 @@
         <v>-6</v>
       </c>
       <c r="B27" s="1">
-        <v>22.187661957219479</v>
+        <v>20.286664145050906</v>
       </c>
       <c r="D27" s="1">
-        <v>0.23649999999999999</v>
+        <v>0.28289999999999998</v>
       </c>
       <c r="E27" s="1">
-        <v>1.3829999999999999E-2</v>
+        <v>1.2330000000000001E-2</v>
       </c>
       <c r="F27" s="1">
-        <v>0.2571</v>
+        <v>0.12609999999999999</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="18"/>
-        <v>17.100506146059292</v>
+        <v>22.944038929440385</v>
       </c>
       <c r="H27" s="1">
         <v>4.5752468868678349E-2</v>
       </c>
       <c r="I27" s="1">
-        <v>1.0151403129664431</v>
+        <v>0.69177405157417438</v>
       </c>
       <c r="J27" s="1">
-        <v>0.33689999999999998</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="K27" s="1">
-        <v>17.100506146059292</v>
+        <v>22.944038929440385</v>
       </c>
       <c r="L27" s="1">
-        <v>1.290377924197843</v>
+        <v>0.87933653435130854</v>
       </c>
       <c r="M27" s="1">
-        <v>-1.8734</v>
+        <v>-0.72599999999999998</v>
       </c>
       <c r="N27" s="1">
-        <v>-0.28720000000000001</v>
+        <v>-0.30180000000000001</v>
       </c>
       <c r="O27" s="1">
-        <v>8.0600000000000005E-2</v>
+        <v>7.8200000000000006E-2</v>
       </c>
       <c r="Q27" s="1">
         <v>-6</v>
@@ -17845,44 +17842,44 @@
         <v>-4</v>
       </c>
       <c r="B28" s="1">
-        <v>16.422769041494867</v>
+        <v>15.601279294361058</v>
       </c>
       <c r="D28" s="1">
-        <v>0.433</v>
+        <v>0.4798</v>
       </c>
       <c r="E28" s="1">
-        <v>1.5130000000000001E-2</v>
+        <v>1.5030000000000002E-2</v>
       </c>
       <c r="F28" s="1">
-        <v>0.1817</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="18"/>
-        <v>28.618638466622603</v>
+        <v>31.922821024617427</v>
       </c>
       <c r="H28" s="1">
         <v>2.7422116508256759E-2</v>
       </c>
       <c r="I28" s="1">
-        <v>0.45034708604406443</v>
+        <v>0.38353843220610562</v>
       </c>
       <c r="J28" s="1">
-        <v>0.4108</v>
+        <v>0.1857</v>
       </c>
       <c r="K28" s="1">
-        <v>28.618638466622603</v>
+        <v>31.922821024617427</v>
       </c>
       <c r="L28" s="1">
-        <v>0.57245085298597231</v>
+        <v>0.48752819652485779</v>
       </c>
       <c r="M28" s="1">
-        <v>-2.3264999999999998</v>
+        <v>-1.0421</v>
       </c>
       <c r="N28" s="1">
-        <v>-0.2833</v>
+        <v>-0.29809999999999998</v>
       </c>
       <c r="O28" s="1">
-        <v>6.4399999999999999E-2</v>
+        <v>6.13E-2</v>
       </c>
       <c r="Q28" s="1">
         <v>-4</v>
@@ -17934,44 +17931,44 @@
         <v>-2</v>
       </c>
       <c r="B29" s="1">
-        <v>13.648132223973573</v>
+        <v>13.225345306394937</v>
       </c>
       <c r="D29" s="1">
-        <v>0.62809999999999999</v>
+        <v>0.66890000000000005</v>
       </c>
       <c r="E29" s="1">
-        <v>1.8429999999999998E-2</v>
+        <v>1.9629999999999998E-2</v>
       </c>
       <c r="F29" s="1">
-        <v>0.1086</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="18"/>
-        <v>34.080303852414545</v>
+        <v>34.075394803871632</v>
       </c>
       <c r="H29" s="1">
         <v>2.3069652401594413E-2</v>
       </c>
       <c r="I29" s="1">
-        <v>0.31485766633807005</v>
+        <v>0.30514807372669572</v>
       </c>
       <c r="J29" s="1">
-        <v>0.4395</v>
+        <v>0.23130000000000001</v>
       </c>
       <c r="K29" s="1">
-        <v>34.080303852414545</v>
+        <v>34.075394803871632</v>
       </c>
       <c r="L29" s="1">
-        <v>0.40022583747053525</v>
+        <v>0.38788365797215679</v>
       </c>
       <c r="M29" s="1">
-        <v>-2.5028000000000001</v>
+        <v>-1.3111999999999999</v>
       </c>
       <c r="N29" s="1">
-        <v>-0.27660000000000001</v>
+        <v>-0.2913</v>
       </c>
       <c r="O29" s="1">
-        <v>5.0999999999999997E-2</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="Q29" s="1">
         <v>-2</v>
@@ -18023,44 +18020,44 @@
         <v>0</v>
       </c>
       <c r="B30" s="1">
-        <v>11.85844701564103</v>
+        <v>11.570177768124166</v>
       </c>
       <c r="D30" s="1">
-        <v>0.83250000000000002</v>
+        <v>0.87450000000000006</v>
       </c>
       <c r="E30" s="1">
-        <v>2.4129999999999999E-2</v>
+        <v>2.673E-2</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="18"/>
-        <v>34.500621632822217</v>
+        <v>32.716049382716051</v>
       </c>
       <c r="H30" s="1">
         <v>2.2802487687687691E-2</v>
       </c>
       <c r="I30" s="1">
-        <v>0.27040209206925142</v>
+        <v>0.27821998749616816</v>
       </c>
       <c r="J30" s="1">
-        <v>0.49840000000000001</v>
+        <v>0.30009999999999998</v>
       </c>
       <c r="K30" s="1">
-        <v>34.500621632822217</v>
+        <v>32.716049382716051</v>
       </c>
       <c r="L30" s="1">
-        <v>0.34371690869359534</v>
+        <v>0.35365449027096502</v>
       </c>
       <c r="M30" s="1">
-        <v>-2.8835999999999999</v>
+        <v>-1.7345999999999999</v>
       </c>
       <c r="N30" s="1">
-        <v>-0.27079999999999999</v>
+        <v>-0.28560000000000002</v>
       </c>
       <c r="O30" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="Q30" s="1">
         <v>0</v>
@@ -18112,44 +18109,44 @@
         <v>2</v>
       </c>
       <c r="B31" s="1">
-        <v>10.6248771165889</v>
+        <v>10.419303211467396</v>
       </c>
       <c r="D31" s="1">
-        <v>1.0364</v>
+        <v>1.0777000000000001</v>
       </c>
       <c r="E31" s="1">
-        <v>3.2129999999999999E-2</v>
+        <v>3.6229999999999998E-2</v>
       </c>
       <c r="F31" s="1">
-        <v>-0.1084</v>
+        <v>-6.6400000000000001E-2</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="18"/>
-        <v>32.256458138811084</v>
+        <v>29.746066795473368</v>
       </c>
       <c r="H31" s="1">
         <v>2.4374057444017359E-2</v>
       </c>
       <c r="I31" s="1">
-        <v>0.25897136517536334</v>
+        <v>0.27539346911277479</v>
       </c>
       <c r="J31" s="1">
-        <v>0.56420000000000003</v>
+        <v>0.3619</v>
       </c>
       <c r="K31" s="1">
-        <v>32.256458138811084</v>
+        <v>29.746066795473368</v>
       </c>
       <c r="L31" s="1">
-        <v>0.32918693933565951</v>
+        <v>0.35006161066832947</v>
       </c>
       <c r="M31" s="1">
-        <v>-3.3277000000000001</v>
+        <v>-2.1291000000000002</v>
       </c>
       <c r="N31" s="1">
-        <v>-0.2646</v>
+        <v>-0.27979999999999999</v>
       </c>
       <c r="O31" s="1">
-        <v>-5.7999999999999996E-3</v>
+        <v>-1.29E-2</v>
       </c>
       <c r="Q31" s="1">
         <v>2</v>
@@ -18201,44 +18198,44 @@
         <v>4</v>
       </c>
       <c r="B32" s="1">
-        <v>9.6890264906568238</v>
+        <v>9.5335723974611248</v>
       </c>
       <c r="D32" s="1">
-        <v>1.244</v>
+        <v>1.2848999999999999</v>
       </c>
       <c r="E32" s="1">
-        <v>4.2630000000000001E-2</v>
+        <v>4.8129999999999999E-2</v>
       </c>
       <c r="F32" s="1">
-        <v>-0.2311</v>
+        <v>-0.14749999999999999</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="18"/>
-        <v>29.181327703495189</v>
+        <v>26.696447122376895</v>
       </c>
       <c r="H32" s="1">
         <v>2.6893349278463645E-2</v>
       </c>
       <c r="I32" s="1">
-        <v>0.26057037358152085</v>
+        <v>0.28025420754136354</v>
       </c>
       <c r="J32" s="1">
-        <v>0.61760000000000004</v>
+        <v>0.4204</v>
       </c>
       <c r="K32" s="1">
-        <v>29.181327703495189</v>
+        <v>26.696447122376895</v>
       </c>
       <c r="L32" s="1">
-        <v>0.3312194910150259</v>
+        <v>0.35624025364352813</v>
       </c>
       <c r="M32" s="1">
-        <v>-3.7033</v>
+        <v>-2.5177</v>
       </c>
       <c r="N32" s="1">
-        <v>-0.25530000000000003</v>
+        <v>-0.27060000000000001</v>
       </c>
       <c r="O32" s="1">
-        <v>-5.96E-2</v>
+        <v>-6.4399999999999999E-2</v>
       </c>
       <c r="Q32" s="1">
         <v>4</v>
@@ -18290,44 +18287,44 @@
         <v>6</v>
       </c>
       <c r="B33" s="1">
-        <v>8.94500716326176</v>
+        <v>8.8221783233791022</v>
       </c>
       <c r="D33" s="1">
-        <v>1.4551000000000001</v>
+        <v>1.4959</v>
       </c>
       <c r="E33" s="1">
-        <v>5.5730000000000002E-2</v>
+        <v>6.2730000000000008E-2</v>
       </c>
       <c r="F33" s="1">
-        <v>-0.36699999999999999</v>
+        <v>-0.24229999999999999</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="18"/>
-        <v>26.109815180333751</v>
+        <v>23.846644348796428</v>
       </c>
       <c r="H33" s="1">
         <v>2.9965373928633812E-2</v>
       </c>
       <c r="I33" s="1">
-        <v>0.26804048444144662</v>
+        <v>0.2894490019873372</v>
       </c>
       <c r="J33" s="1">
-        <v>0.66900000000000004</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="K33" s="1">
-        <v>26.109815180333751</v>
+        <v>23.846644348796428</v>
       </c>
       <c r="L33" s="1">
-        <v>0.34071499229877544</v>
+        <v>0.36792805642219045</v>
       </c>
       <c r="M33" s="1">
-        <v>-4.0800999999999998</v>
+        <v>-2.9102999999999999</v>
       </c>
       <c r="N33" s="1">
-        <v>-0.252</v>
+        <v>-0.2676</v>
       </c>
       <c r="O33" s="1">
-        <v>5.2600000000000001E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="Q33" s="1">
         <v>6</v>
@@ -18379,44 +18376,44 @@
         <v>8</v>
       </c>
       <c r="B34" s="1">
-        <v>8.3322846477483026</v>
+        <v>8.2315953490606866</v>
       </c>
       <c r="D34" s="1">
-        <v>1.6698</v>
+        <v>1.7109000000000001</v>
       </c>
       <c r="E34" s="1">
-        <v>7.1529999999999996E-2</v>
+        <v>8.0129999999999993E-2</v>
       </c>
       <c r="F34" s="1">
-        <v>-0.5161</v>
+        <v>-0.3508</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="18"/>
-        <v>23.34405144694534</v>
+        <v>21.35155372519656</v>
       </c>
       <c r="H34" s="1">
         <v>3.3372265797543654E-2</v>
       </c>
       <c r="I34" s="1">
-        <v>0.27806721796544875</v>
+        <v>0.30034226743078452</v>
       </c>
       <c r="J34" s="1">
-        <v>0.71909999999999996</v>
+        <v>0.53249999999999997</v>
       </c>
       <c r="K34" s="1">
-        <v>23.34405144694534</v>
+        <v>21.35155372519656</v>
       </c>
       <c r="L34" s="1">
-        <v>0.35346029994336947</v>
+        <v>0.38177484102044557</v>
       </c>
       <c r="M34" s="1">
-        <v>-4.4640000000000004</v>
+        <v>-3.3121999999999998</v>
       </c>
       <c r="N34" s="1">
-        <v>-0.24859999999999999</v>
+        <v>-0.2626</v>
       </c>
       <c r="O34" s="1">
-        <v>0.10879999999999999</v>
+        <v>8.9800000000000005E-2</v>
       </c>
       <c r="Q34" s="1">
         <v>8</v>
@@ -18468,44 +18465,44 @@
         <v>10</v>
       </c>
       <c r="B35" s="1">
-        <v>7.8133481008690966</v>
+        <v>7.7284875633958414</v>
       </c>
       <c r="D35" s="1">
-        <v>1.8885000000000001</v>
+        <v>1.9301999999999999</v>
       </c>
       <c r="E35" s="1">
-        <v>9.0329999999999994E-2</v>
+        <v>0.10063</v>
       </c>
       <c r="F35" s="1">
-        <v>-0.67849999999999999</v>
+        <v>-0.47339999999999999</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="18"/>
-        <v>20.906675523082036</v>
+        <v>19.18115870018881</v>
       </c>
       <c r="H35" s="1">
         <v>3.7057458439020703E-2</v>
       </c>
       <c r="I35" s="1">
-        <v>0.28954282251755786</v>
+        <v>0.31216217853735589</v>
       </c>
       <c r="J35" s="1">
-        <v>0.76659999999999995</v>
+        <v>0.5857</v>
       </c>
       <c r="K35" s="1">
-        <v>20.906675523082036</v>
+        <v>19.18115870018881</v>
       </c>
       <c r="L35" s="1">
-        <v>0.368047314754745</v>
+        <v>0.3967995151104054</v>
       </c>
       <c r="M35" s="1">
-        <v>-4.8461999999999996</v>
+        <v>-3.7157</v>
       </c>
       <c r="N35" s="1">
-        <v>-0.21510000000000001</v>
+        <v>-0.2298</v>
       </c>
       <c r="O35" s="1">
-        <v>-0.14019999999999999</v>
+        <v>-0.14810000000000001</v>
       </c>
       <c r="Q35" s="1">
         <v>10</v>
@@ -19081,21 +19078,21 @@
         <v>-10</v>
       </c>
       <c r="B70" s="1">
-        <v>-0.1467</v>
+        <v>-0.97699999999999998</v>
       </c>
       <c r="D70" s="1">
-        <v>1.7430000000000001E-2</v>
+        <v>1.303E-2</v>
       </c>
       <c r="E70" s="1">
-        <v>0.36299999999999999</v>
+        <v>0.14879999999999999</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" ref="F70:F80" si="20">B70*COS(RADIANS(A70))+D70*SIN(RADIANS(A70))</f>
-        <v>-0.1474979851036255</v>
+        <v>-0.96441981044792724</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" ref="G70:G80" si="21">D70*COS(RADIANS(A70))-B70*SIN(RADIANS(A70))</f>
-        <v>-8.3089885287358917E-3</v>
+        <v>-0.15682222455884187</v>
       </c>
       <c r="H70" s="1">
         <v>0.20849999999999999</v>
@@ -19137,32 +19134,32 @@
         <v>-8</v>
       </c>
       <c r="B71" s="1">
-        <v>4.4499999999999998E-2</v>
+        <v>9.1499999999999998E-2</v>
       </c>
       <c r="D71" s="1">
-        <v>1.4630000000000001E-2</v>
+        <v>1.1730000000000001E-2</v>
       </c>
       <c r="E71" s="1">
-        <v>0.31340000000000001</v>
+        <v>0.14280000000000001</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="20"/>
-        <v>4.2030826591954125E-2</v>
+        <v>8.8977027815592122E-2</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="21"/>
-        <v>2.0680824838412087E-2</v>
+        <v>2.4350183184184609E-2</v>
       </c>
       <c r="H71" s="1">
         <v>0.1474</v>
       </c>
       <c r="I71" s="1">
         <f>(F72-F70)/(2*2*PI()/180)</f>
-        <v>5.4611011686703392</v>
+        <v>17.825880378637649</v>
       </c>
       <c r="J71" s="1">
         <f>(G72-G70)/(2*2*PI()/180)</f>
-        <v>0.67013441519731021</v>
+        <v>2.8455344680689119</v>
       </c>
       <c r="K71" s="1">
         <f>(H72-H70)/(2*2*PI()/180)</f>
@@ -19170,11 +19167,11 @@
       </c>
       <c r="L71" s="1">
         <f>(F70-2*F71+F72)/((2*PI()/180)^2)</f>
-        <v>1.8048551865575064</v>
+        <v>-707.70120306588467</v>
       </c>
       <c r="M71" s="1">
         <f t="shared" ref="M71:M79" si="24">(G70-2*G71+G72)/((2*PI()/180)^2)</f>
-        <v>-9.1880980063909128</v>
+        <v>-134.33984981350974</v>
       </c>
       <c r="N71" s="1">
         <f t="shared" ref="N71:N79" si="25">(H70-2*H71+H72)/((2*PI()/180)^2)</f>
@@ -19182,19 +19179,19 @@
       </c>
       <c r="P71">
         <f>(J71*N71-K71*M71)/(I71*M71-J71*L71)</f>
-        <v>0.46285752925313478</v>
+        <v>0.74363876246685678</v>
       </c>
       <c r="Q71">
         <f>(I71*N71-K71*L71)/(I71*M71-J71*L71)</f>
-        <v>0.91842045226378011</v>
+        <v>3.986516104688592</v>
       </c>
       <c r="R71">
         <f>P71*$P$67</f>
-        <v>0.26035736020488831</v>
+        <v>0.41829680388760693</v>
       </c>
       <c r="S71">
         <f>Q71*$P$67</f>
-        <v>0.51661150439837633</v>
+        <v>2.2424153088873329</v>
       </c>
       <c r="W71" s="1">
         <v>-8</v>
@@ -19267,32 +19264,32 @@
         <v>-6</v>
       </c>
       <c r="B72" s="1">
-        <v>0.23649999999999999</v>
+        <v>0.28289999999999998</v>
       </c>
       <c r="D72" s="1">
-        <v>1.3829999999999999E-2</v>
+        <v>1.2330000000000001E-2</v>
       </c>
       <c r="E72" s="1">
-        <v>0.2571</v>
+        <v>0.12609999999999999</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="20"/>
-        <v>0.23375879960760496</v>
+        <v>0.28006140824759435</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="21"/>
-        <v>3.8475219375743261E-2</v>
+        <v>4.1833557228309975E-2</v>
       </c>
       <c r="H72" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I72" s="1">
         <f t="shared" ref="I72:I79" si="30">(F73-F71)/(2*2*PI()/180)</f>
-        <v>5.569994762857279</v>
+        <v>5.5663675385983833</v>
       </c>
       <c r="J72" s="1">
         <f>(G73-G71)/(2*2*PI()/180)</f>
-        <v>0.3526107229495013</v>
+        <v>0.34538412402845309</v>
       </c>
       <c r="K72" s="1">
         <f>(H73-H71)/(2*2*PI()/180)</f>
@@ -19300,11 +19297,11 @@
       </c>
       <c r="L72" s="1">
         <f t="shared" ref="L72:L79" si="31">(F71-2*F72+F73)/((2*PI()/180)^2)</f>
-        <v>4.4342881763645092</v>
+        <v>5.2828584451933587</v>
       </c>
       <c r="M72" s="1">
         <f t="shared" si="24"/>
-        <v>-9.00466945481935</v>
+        <v>-8.9082130481893032</v>
       </c>
       <c r="N72" s="1">
         <f t="shared" si="25"/>
@@ -19312,19 +19309,19 @@
       </c>
       <c r="P72">
         <f t="shared" ref="P72:P79" si="32">(J72*N72-K72*M72)/(I72*M72-J72*L72)</f>
-        <v>0.38214596796319228</v>
+        <v>0.38017814547604106</v>
       </c>
       <c r="Q72">
         <f t="shared" ref="Q72:Q79" si="33">(I72*N72-K72*L72)/(I72*M72-J72*L72)</f>
-        <v>4.8783443115501368E-2</v>
+        <v>1.4076538170251961E-2</v>
       </c>
       <c r="R72">
         <f t="shared" ref="R72:S79" si="34">P72*$P$67</f>
-        <v>0.21495710697929565</v>
+        <v>0.21385020683027309</v>
       </c>
       <c r="S72">
         <f t="shared" si="34"/>
-        <v>2.744068675246952E-2</v>
+        <v>7.9180527207667276E-3</v>
       </c>
       <c r="W72" s="1">
         <v>-6</v>
@@ -19397,32 +19394,32 @@
         <v>-4</v>
       </c>
       <c r="B73" s="1">
-        <v>0.433</v>
+        <v>0.4798</v>
       </c>
       <c r="D73" s="1">
-        <v>1.5130000000000001E-2</v>
+        <v>1.5030000000000002E-2</v>
       </c>
       <c r="E73" s="1">
-        <v>0.1817</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="20"/>
-        <v>0.43088981831475526</v>
+        <v>0.47758279151428945</v>
       </c>
       <c r="G73" s="1">
         <f t="shared" si="21"/>
-        <v>4.52976972116374E-2</v>
+        <v>4.846254377783648E-2</v>
       </c>
       <c r="H73" s="1">
         <v>0</v>
       </c>
       <c r="I73" s="1">
         <f t="shared" si="30"/>
-        <v>5.6338278389225662</v>
+        <v>5.5540528869000552</v>
       </c>
       <c r="J73" s="1">
         <f t="shared" ref="J73:K79" si="39">(G74-G72)/(2*2*PI()/180)</f>
-        <v>2.6698793980128456E-2</v>
+        <v>1.6168268094515371E-2</v>
       </c>
       <c r="K73" s="1">
         <f t="shared" si="39"/>
@@ -19430,11 +19427,11 @@
       </c>
       <c r="L73" s="1">
         <f t="shared" si="31"/>
-        <v>-0.77692232448606857</v>
+        <v>-5.9884360136810937</v>
       </c>
       <c r="M73" s="1">
         <f t="shared" si="24"/>
-        <v>-9.6687085680931819</v>
+        <v>-9.9544660456122678</v>
       </c>
       <c r="N73" s="1">
         <f t="shared" si="25"/>
@@ -19442,19 +19439,19 @@
       </c>
       <c r="P73">
         <f t="shared" si="32"/>
-        <v>0.39065081446738881</v>
+        <v>0.39628408118205066</v>
       </c>
       <c r="Q73">
         <f t="shared" si="33"/>
-        <v>0.29452540016511142</v>
+        <v>0.49397896000917785</v>
       </c>
       <c r="R73">
         <f t="shared" si="34"/>
-        <v>0.21974108313790619</v>
+        <v>0.22290979566490349</v>
       </c>
       <c r="S73">
         <f t="shared" si="34"/>
-        <v>0.16567053759287517</v>
+        <v>0.27786316500516256</v>
       </c>
       <c r="W73" s="1">
         <v>-4</v>
@@ -19527,32 +19524,32 @@
         <v>-2</v>
       </c>
       <c r="B74" s="1">
-        <v>0.62809999999999999</v>
+        <v>0.66890000000000005</v>
       </c>
       <c r="D74" s="1">
-        <v>1.8429999999999998E-2</v>
+        <v>1.9629999999999998E-2</v>
       </c>
       <c r="E74" s="1">
-        <v>0.1086</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="20"/>
-        <v>0.62707418072646703</v>
+        <v>0.66780744707280315</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" si="21"/>
-        <v>4.0339146820802793E-2</v>
+        <v>4.2962315278687747E-2</v>
       </c>
       <c r="H74" s="1">
         <v>-7.8100000000000003E-2</v>
       </c>
       <c r="I74" s="1">
         <f t="shared" si="30"/>
-        <v>5.7526421050116792</v>
+        <v>5.6854202155863502</v>
       </c>
       <c r="J74" s="1">
         <f t="shared" si="39"/>
-        <v>-0.30320492805941601</v>
+        <v>-0.31129575913833202</v>
       </c>
       <c r="K74" s="1">
         <f t="shared" si="39"/>
@@ -19560,11 +19557,11 @@
       </c>
       <c r="L74" s="1">
         <f t="shared" si="31"/>
-        <v>7.5844783173365657</v>
+        <v>13.515229513313683</v>
       </c>
       <c r="M74" s="1">
         <f t="shared" si="24"/>
-        <v>-9.233382350429757</v>
+        <v>-8.8078406571869419</v>
       </c>
       <c r="N74" s="1">
         <f t="shared" si="25"/>
@@ -19572,19 +19569,19 @@
       </c>
       <c r="P74">
         <f t="shared" si="32"/>
-        <v>0.37969331242147847</v>
+        <v>0.39664323170895699</v>
       </c>
       <c r="Q74">
         <f t="shared" si="33"/>
-        <v>0.72805745753321394</v>
+        <v>0.4815577878187885</v>
       </c>
       <c r="R74">
         <f t="shared" si="34"/>
-        <v>0.21357748823708164</v>
+        <v>0.22311181783628831</v>
       </c>
       <c r="S74">
         <f t="shared" si="34"/>
-        <v>0.40953231986243283</v>
+        <v>0.27087625564806855</v>
       </c>
       <c r="W74" s="1">
         <v>-2</v>
@@ -19657,32 +19654,32 @@
         <v>0</v>
       </c>
       <c r="B75" s="1">
-        <v>0.83250000000000002</v>
+        <v>0.87450000000000006</v>
       </c>
       <c r="D75" s="1">
-        <v>2.4129999999999999E-2</v>
+        <v>2.673E-2</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="20"/>
-        <v>0.83250000000000002</v>
+        <v>0.87450000000000006</v>
       </c>
       <c r="G75" s="1">
         <f t="shared" si="21"/>
-        <v>2.4129999999999999E-2</v>
+        <v>2.673E-2</v>
       </c>
       <c r="H75" s="1">
         <v>-0.16789999999999999</v>
       </c>
       <c r="I75" s="1">
         <f t="shared" si="30"/>
-        <v>5.8701788324021429</v>
+        <v>5.8799859038365243</v>
       </c>
       <c r="J75" s="1">
         <f t="shared" si="39"/>
-        <v>-0.63596249648051362</v>
+        <v>-0.63549002518258579</v>
       </c>
       <c r="K75" s="1">
         <f t="shared" si="39"/>
@@ -19690,11 +19687,11 @@
       </c>
       <c r="L75" s="1">
         <f t="shared" si="31"/>
-        <v>-0.85011990008329152</v>
+        <v>-2.3674367385207606</v>
       </c>
       <c r="M75" s="1">
         <f t="shared" si="24"/>
-        <v>-9.8322219211348596</v>
+        <v>-9.7671225294901767</v>
       </c>
       <c r="N75" s="1">
         <f t="shared" si="25"/>
@@ -19702,19 +19699,19 @@
       </c>
       <c r="P75">
         <f t="shared" si="32"/>
-        <v>0.38642476089498368</v>
+        <v>0.37907353152018586</v>
       </c>
       <c r="Q75">
         <f t="shared" si="33"/>
-        <v>0.64274677876308373</v>
+        <v>0.70527979689968334</v>
       </c>
       <c r="R75">
         <f t="shared" si="34"/>
-        <v>0.21736392800342832</v>
+        <v>0.21322886148010456</v>
       </c>
       <c r="S75">
         <f t="shared" si="34"/>
-        <v>0.36154506305423462</v>
+        <v>0.39671988575607187</v>
       </c>
       <c r="W75" s="1">
         <v>0</v>
@@ -19787,32 +19784,32 @@
         <v>2</v>
       </c>
       <c r="B76" s="1">
-        <v>1.0364</v>
+        <v>1.0777000000000001</v>
       </c>
       <c r="D76" s="1">
-        <v>3.2129999999999999E-2</v>
+        <v>3.6229999999999998E-2</v>
       </c>
       <c r="E76" s="1">
-        <v>-0.1084</v>
+        <v>-6.6400000000000001E-2</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="20"/>
-        <v>1.0368899739516422</v>
+        <v>1.0783079030440113</v>
       </c>
       <c r="G76" s="1">
         <f t="shared" si="21"/>
-        <v>-4.0594111103484584E-3</v>
+        <v>-1.4032579333834588E-3</v>
       </c>
       <c r="H76" s="1">
         <v>-0.26500000000000001</v>
       </c>
       <c r="I76" s="1">
         <f t="shared" si="30"/>
-        <v>5.893492539141123</v>
+        <v>5.8818046335804919</v>
       </c>
       <c r="J76" s="1">
         <f t="shared" si="39"/>
-        <v>-0.97948421188980539</v>
+        <v>-0.9790034644856126</v>
       </c>
       <c r="K76" s="1">
         <f t="shared" si="39"/>
@@ -19820,11 +19817,11 @@
       </c>
       <c r="L76" s="1">
         <f t="shared" si="31"/>
-        <v>2.185896901032554</v>
+        <v>2.4716422769249515</v>
       </c>
       <c r="M76" s="1">
         <f t="shared" si="24"/>
-        <v>-9.8501225429117341</v>
+        <v>-9.9147477485966338</v>
       </c>
       <c r="N76" s="1">
         <f t="shared" si="25"/>
@@ -19832,19 +19829,19 @@
       </c>
       <c r="P76">
         <f t="shared" si="32"/>
-        <v>0.404721837901245</v>
+        <v>0.40820723494578787</v>
       </c>
       <c r="Q76">
         <f t="shared" si="33"/>
-        <v>0.51008210272350296</v>
+        <v>0.49422429038359111</v>
       </c>
       <c r="R76">
         <f t="shared" si="34"/>
-        <v>0.22765603381945032</v>
+        <v>0.22961656965700566</v>
       </c>
       <c r="S76">
         <f t="shared" si="34"/>
-        <v>0.28692118278197043</v>
+        <v>0.27800116334077002</v>
       </c>
       <c r="W76" s="1">
         <v>2</v>
@@ -19917,32 +19914,32 @@
         <v>4</v>
       </c>
       <c r="B77" s="1">
-        <v>1.244</v>
+        <v>1.2848999999999999</v>
       </c>
       <c r="D77" s="1">
-        <v>4.2630000000000001E-2</v>
+        <v>4.8129999999999999E-2</v>
       </c>
       <c r="E77" s="1">
-        <v>-0.2311</v>
+        <v>-0.14749999999999999</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="20"/>
-        <v>1.2439433969989335</v>
+        <v>1.2851274272601529</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" si="21"/>
-        <v>-4.4250897875115575E-2</v>
+        <v>-4.1617335374821256E-2</v>
       </c>
       <c r="H77" s="1">
         <v>-0.36930000000000002</v>
       </c>
       <c r="I77" s="1">
         <f t="shared" si="30"/>
-        <v>5.9596807705654395</v>
+        <v>5.9581089107237402</v>
       </c>
       <c r="J77" s="1">
         <f t="shared" si="39"/>
-        <v>-1.3266157439307209</v>
+        <v>-1.3260322037584853</v>
       </c>
       <c r="K77" s="1">
         <f t="shared" si="39"/>
@@ -19950,11 +19947,11 @@
       </c>
       <c r="L77" s="1">
         <f t="shared" si="31"/>
-        <v>1.6064094130159723</v>
+        <v>1.9002707621797068</v>
       </c>
       <c r="M77" s="1">
         <f t="shared" si="24"/>
-        <v>-10.039049178943033</v>
+        <v>-9.9685343814848153</v>
       </c>
       <c r="N77" s="1">
         <f t="shared" si="25"/>
@@ -19962,19 +19959,19 @@
       </c>
       <c r="P77">
         <f t="shared" si="32"/>
-        <v>0.39868922085333758</v>
+        <v>0.40069631429325236</v>
       </c>
       <c r="Q77">
         <f t="shared" si="33"/>
-        <v>0.5411601769687594</v>
+        <v>0.5328526796098455</v>
       </c>
       <c r="R77">
         <f t="shared" si="34"/>
-        <v>0.22426268673000238</v>
+        <v>0.22539167678995445</v>
       </c>
       <c r="S77">
         <f t="shared" si="34"/>
-        <v>0.30440259954492715</v>
+        <v>0.29972963228053812</v>
       </c>
       <c r="W77" s="1">
         <v>4</v>
@@ -20047,32 +20044,32 @@
         <v>6</v>
       </c>
       <c r="B78" s="1">
-        <v>1.4551000000000001</v>
+        <v>1.4959</v>
       </c>
       <c r="D78" s="1">
-        <v>5.5730000000000002E-2</v>
+        <v>6.2730000000000008E-2</v>
       </c>
       <c r="E78" s="1">
-        <v>-0.36699999999999999</v>
+        <v>-0.24229999999999999</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="20"/>
-        <v>1.4529541812082809</v>
+        <v>1.4942623737821799</v>
       </c>
       <c r="G78" s="1">
         <f t="shared" si="21"/>
-        <v>-9.6674661671888693E-2</v>
+        <v>-9.3977769705631042E-2</v>
       </c>
       <c r="H78" s="1">
         <v>-0.48099999999999998</v>
       </c>
       <c r="I78" s="1">
         <f t="shared" si="30"/>
-        <v>6.0097725918762235</v>
+        <v>6.0199837888681564</v>
       </c>
       <c r="J78" s="1">
         <f t="shared" si="39"/>
-        <v>-1.6802914266301756</v>
+        <v>-1.6779605134050843</v>
       </c>
       <c r="K78" s="1">
         <f t="shared" si="39"/>
@@ -20080,11 +20077,11 @@
       </c>
       <c r="L78" s="1">
         <f t="shared" si="31"/>
-        <v>1.2636405362154393</v>
+        <v>1.6448986133815922</v>
       </c>
       <c r="M78" s="1">
         <f t="shared" si="24"/>
-        <v>-10.225074756143798</v>
+        <v>-10.195472452438496</v>
       </c>
       <c r="N78" s="1">
         <f t="shared" si="25"/>
@@ -20092,19 +20089,19 @@
       </c>
       <c r="P78">
         <f t="shared" si="32"/>
-        <v>0.39570063260075028</v>
+        <v>0.39907203745194786</v>
       </c>
       <c r="Q78">
         <f t="shared" si="33"/>
-        <v>0.55307552087221623</v>
+        <v>0.53934026999530804</v>
       </c>
       <c r="R78">
         <f t="shared" si="34"/>
-        <v>0.22258160583792203</v>
+        <v>0.22447802106672066</v>
       </c>
       <c r="S78">
         <f t="shared" si="34"/>
-        <v>0.31110498049062163</v>
+        <v>0.30337890187236077</v>
       </c>
       <c r="W78" s="1">
         <v>6</v>
@@ -20177,32 +20174,32 @@
         <v>8</v>
       </c>
       <c r="B79" s="1">
-        <v>1.6698</v>
+        <v>1.7109000000000001</v>
       </c>
       <c r="D79" s="1">
-        <v>7.1529999999999996E-2</v>
+        <v>8.0129999999999993E-2</v>
       </c>
       <c r="E79" s="1">
-        <v>-0.5161</v>
+        <v>-0.3508</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="20"/>
-        <v>1.6635046730963476</v>
+        <v>1.7054015793898829</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" si="21"/>
-        <v>-0.16155736902603274</v>
+        <v>-0.15876107808431394</v>
       </c>
       <c r="H79" s="1">
         <v>-0.60019999999999996</v>
       </c>
       <c r="I79" s="1">
         <f t="shared" si="30"/>
-        <v>6.0524525639088491</v>
+        <v>6.0746098009303431</v>
       </c>
       <c r="J79" s="1">
         <f t="shared" si="39"/>
-        <v>-2.0383294063270943</v>
+        <v>-2.0353858516822849</v>
       </c>
       <c r="K79" s="1">
         <f t="shared" si="39"/>
@@ -20210,11 +20207,11 @@
       </c>
       <c r="L79" s="1">
         <f t="shared" si="31"/>
-        <v>1.181741730990393</v>
+        <v>1.4849413294124358</v>
       </c>
       <c r="M79" s="1">
         <f t="shared" si="24"/>
-        <v>-10.288990385880306</v>
+        <v>-10.283490921880858</v>
       </c>
       <c r="N79" s="1">
         <f t="shared" si="25"/>
@@ -20222,19 +20219,19 @@
       </c>
       <c r="P79">
         <f t="shared" si="32"/>
-        <v>0.39834021153631266</v>
+        <v>0.40112343736973566</v>
       </c>
       <c r="Q79">
         <f t="shared" si="33"/>
-        <v>0.54450983879877046</v>
+        <v>0.53265442822733955</v>
       </c>
       <c r="R79">
         <f t="shared" si="34"/>
-        <v>0.22406636898917587</v>
+        <v>0.22563193352047631</v>
       </c>
       <c r="S79">
         <f t="shared" si="34"/>
-        <v>0.30628678432430839</v>
+        <v>0.29961811587787851</v>
       </c>
       <c r="W79" s="1">
         <v>8</v>
@@ -20307,21 +20304,21 @@
         <v>10</v>
       </c>
       <c r="B80" s="1">
-        <v>1.8885000000000001</v>
+        <v>1.9301999999999999</v>
       </c>
       <c r="D80" s="1">
-        <v>9.0329999999999994E-2</v>
+        <v>0.10063</v>
       </c>
       <c r="E80" s="1">
-        <v>-0.67849999999999999</v>
+        <v>-0.47339999999999999</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="20"/>
-        <v>1.8754950814522087</v>
+        <v>1.918350140982787</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" si="21"/>
-        <v>-0.23897689919440521</v>
+        <v>-0.2360745083470904</v>
       </c>
       <c r="H80" s="1">
         <v>-0.7268</v>

--- a/Dynamics of Atmospheric Flight/Project_PartIV/Fly_off_2_glider/6917_new_performance_sheet.xlsx
+++ b/Dynamics of Atmospheric Flight/Project_PartIV/Fly_off_2_glider/6917_new_performance_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chees\Desktop\USU\Machine_Learning\Spring_2024\Dynamics of Atmospheric Flight\Project_PartIV\Fly_off_2_glider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0BF6E3-67AE-4CDA-A3B6-A7D724217613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F522D2-25FF-4994-95EA-A433CEC1E68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A63E6AFB-F69A-4C02-A7B8-ACF62953D1BC}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{A63E6AFB-F69A-4C02-A7B8-ACF62953D1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16004,7 +16004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4602115-156F-4427-9CDC-7D2EBE7CF748}">
   <dimension ref="A1:AO96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
       <selection activeCell="M94" sqref="M94"/>
     </sheetView>
   </sheetViews>
